--- a/runtime/submit.xlsx
+++ b/runtime/submit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="10535"/>
+    <workbookView windowWidth="21288" windowHeight="10535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程结点表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>提报类型代码</t>
   </si>
@@ -68,7 +68,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>18766573776,18865518761,17853525595</t>
+    <t>18766573776,15666056157,18615020205,15688628510,15964340359</t>
   </si>
   <si>
     <t>运维人员</t>
@@ -77,7 +77,10 @@
     <t>-1</t>
   </si>
   <si>
-    <t>处理完成</t>
+    <t>18660089996</t>
+  </si>
+  <si>
+    <t>15666056157</t>
   </si>
   <si>
     <t>代码</t>
@@ -89,22 +92,10 @@
     <t>手工提报</t>
   </si>
   <si>
-    <t>设备管理</t>
-  </si>
-  <si>
-    <t>上级视频会议</t>
-  </si>
-  <si>
-    <t>网络相关</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>应用</t>
+    <t>网络&amp;信息系统</t>
+  </si>
+  <si>
+    <t>视频会议调试</t>
   </si>
   <si>
     <t>作废</t>
@@ -132,8 +123,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1094,13 +1085,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.11111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
@@ -1137,8 +1128,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1218,10 +1209,93 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1234,71 +1308,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1374,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1335,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1343,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1351,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1359,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1367,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1375,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
